--- a/data/Supplementary_Table5.xlsx
+++ b/data/Supplementary_Table5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ph14916/ukbb-prot-prs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F0A2DC-A284-0344-8212-6277FC955AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2713E16-FAA3-524E-AF92-B361F5A5B8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19960" xr2:uid="{05F3420C-F508-254F-A908-4F7C3F1B436E}"/>
   </bookViews>
@@ -545,10 +545,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -869,7 +869,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/Supplementary_Table5.xlsx
+++ b/data/Supplementary_Table5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ph14916/ukbb-prot-prs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gh13047/repo/ukbb-prot-prs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2713E16-FAA3-524E-AF92-B361F5A5B8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B138C-A161-AC40-BD4B-7F0CC9C1A732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19960" xr2:uid="{05F3420C-F508-254F-A908-4F7C3F1B436E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{05F3420C-F508-254F-A908-4F7C3F1B436E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,15 +320,9 @@
     <t>no</t>
   </si>
   <si>
-    <t>ieu-a-1102  </t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>ieu-a-26  </t>
-  </si>
-  <si>
     <t>ieu-b-18</t>
   </si>
   <si>
@@ -366,6 +360,12 @@
   </si>
   <si>
     <t>OGID_corresponds_to_Biogen_study</t>
+  </si>
+  <si>
+    <t>ieu-a-1102</t>
+  </si>
+  <si>
+    <t>ieu-a-26</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -905,19 +905,19 @@
         <v>47</v>
       </c>
       <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2">
         <v>63933</v>
@@ -946,19 +946,19 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
         <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -987,19 +987,19 @@
         <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
         <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="12"/>
     </row>
@@ -1025,19 +1025,19 @@
         <v>48</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>2015</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -1066,19 +1066,19 @@
         <v>48</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N5" s="12"/>
     </row>
@@ -1108,19 +1108,19 @@
         <v>48</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1146,19 +1146,19 @@
         <v>48</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="12" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1181,19 +1181,19 @@
         <v>48</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N8"/>
     </row>
@@ -1214,19 +1214,19 @@
         <v>48</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1246,19 +1246,19 @@
         <v>48</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1278,19 +1278,19 @@
         <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N11" s="12"/>
     </row>
@@ -1299,7 +1299,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>49</v>
@@ -1311,19 +1311,19 @@
         <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1352,16 +1352,16 @@
         <v>48</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
         <v>55</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M13" s="18" t="s">
         <v>55</v>
@@ -1384,7 +1384,7 @@
         <v>2019</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>29</v>
@@ -1393,19 +1393,19 @@
         <v>48</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
         <v>55</v>
       </c>
       <c r="L14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1428,19 +1428,19 @@
         <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1463,19 +1463,19 @@
         <v>48</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1">
         <v>108990</v>
@@ -1504,19 +1504,19 @@
         <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" t="s">
         <v>55</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="18" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1541,19 +1541,19 @@
         <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N18"/>
     </row>
@@ -1583,19 +1583,19 @@
         <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
         <v>55</v>
       </c>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N19" s="18"/>
     </row>
@@ -1616,19 +1616,19 @@
         <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N20" s="12"/>
     </row>
@@ -1658,19 +1658,19 @@
         <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
         <v>55</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
         <v>2012</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>26</v>
@@ -1699,19 +1699,19 @@
         <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/Supplementary_Table5.xlsx
+++ b/data/Supplementary_Table5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gh13047/repo/ukbb-prot-prs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B138C-A161-AC40-BD4B-7F0CC9C1A732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD262B1B-31F8-0D4E-A69A-E9800B634472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{05F3420C-F508-254F-A908-4F7C3F1B436E}"/>
+    <workbookView xWindow="4800" yWindow="2300" windowWidth="28800" windowHeight="17500" xr2:uid="{05F3420C-F508-254F-A908-4F7C3F1B436E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="78">
   <si>
     <t>Type 2 Diabetes</t>
   </si>
@@ -366,6 +366,24 @@
   </si>
   <si>
     <t>ieu-a-26</t>
+  </si>
+  <si>
+    <t>Disease_alt1</t>
+  </si>
+  <si>
+    <t>Disease_alt2</t>
+  </si>
+  <si>
+    <t>ER+ breast cancer</t>
+  </si>
+  <si>
+    <t>High-grade serous ovarian cancer</t>
+  </si>
+  <si>
+    <t>Lung cancer (in ever smokers)</t>
+  </si>
+  <si>
+    <t>Serous ovarian cancer</t>
   </si>
 </sst>
 </file>
@@ -866,166 +884,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687B095F-41A0-9F42-BBFF-77BD11FB4818}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="2" width="68.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="40.83203125" customWidth="1"/>
+    <col min="1" max="1" width="77.6640625" customWidth="1"/>
+    <col min="2" max="3" width="68.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
       <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2">
         <v>63933</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>30820047</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>2019</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
         <v>56</v>
       </c>
       <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
         <v>80610</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>29566793</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>2018</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
         <v>56</v>
       </c>
       <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1">
         <v>122977</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>56</v>
+      <c r="I4" t="s">
+        <v>48</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>56</v>
@@ -1033,40 +1063,43 @@
       <c r="K4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="21">
         <v>117165</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>26831199</v>
       </c>
-      <c r="E5" s="12">
+      <c r="F5" s="12">
         <v>2015</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>56</v>
+      <c r="I5" t="s">
+        <v>48</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>56</v>
@@ -1074,41 +1107,44 @@
       <c r="K5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="N5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
         <v>141217</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>26343387</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>2015</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>56</v>
+      <c r="I6" t="s">
+        <v>48</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>56</v>
@@ -1116,37 +1152,40 @@
       <c r="K6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="N6" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
         <v>12906</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>30093612</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>56</v>
+      <c r="I7" t="s">
+        <v>48</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>56</v>
@@ -1154,34 +1193,37 @@
       <c r="K7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="12" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" s="23" t="s">
+        <v>74</v>
+      </c>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8" t="s">
+      <c r="F8"/>
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>56</v>
+      <c r="I8" t="s">
+        <v>48</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>56</v>
@@ -1189,32 +1231,35 @@
       <c r="K8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="N8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N8"/>
-    </row>
-    <row r="9" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="C9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>56</v>
+      <c r="I9" t="s">
+        <v>48</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>56</v>
@@ -1222,31 +1267,34 @@
       <c r="K9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
+      <c r="C10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>41</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>56</v>
+      <c r="I10" t="s">
+        <v>48</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>56</v>
@@ -1254,31 +1302,34 @@
       <c r="K10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="C11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -1287,31 +1338,34 @@
         <v>56</v>
       </c>
       <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="C12" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>52</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
         <v>56</v>
@@ -1320,115 +1374,124 @@
         <v>56</v>
       </c>
       <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="N12" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14">
         <v>18759</v>
       </c>
-      <c r="D13" s="15">
+      <c r="E13" s="15">
         <v>22472876</v>
       </c>
-      <c r="E13" s="16">
+      <c r="F13" s="16">
         <v>2013</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="H13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" s="18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
         <v>55</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="N13" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9">
         <v>115803</v>
       </c>
-      <c r="D14" s="20">
+      <c r="E14" s="20">
         <v>31604244</v>
       </c>
-      <c r="E14" s="11">
+      <c r="F14" s="11">
         <v>2019</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="H14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>56</v>
+      <c r="I14" t="s">
+        <v>48</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
         <v>55</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
         <v>2497</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>37</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>32</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
         <v>56</v>
@@ -1437,33 +1500,36 @@
         <v>56</v>
       </c>
       <c r="L15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="N15" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
         <v>25509</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>38</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>33</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>56</v>
+      <c r="I16" t="s">
+        <v>48</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>56</v>
@@ -1471,77 +1537,83 @@
       <c r="K16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="N16" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1">
         <v>108990</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>25064009</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>2014</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>24</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s">
         <v>56</v>
       </c>
       <c r="K17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" t="s">
         <v>55</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="18" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="18" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
         <v>79148</v>
       </c>
-      <c r="D18"/>
       <c r="E18"/>
-      <c r="F18" t="s">
+      <c r="F18"/>
+      <c r="G18" t="s">
         <v>39</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
         <v>56</v>
@@ -1550,73 +1622,79 @@
         <v>56</v>
       </c>
       <c r="L18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="N18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N18"/>
-    </row>
-    <row r="19" spans="1:14" s="12" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15" s="12" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
         <v>1050064</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>25056061</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>2014</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>4</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
         <v>56</v>
       </c>
       <c r="K19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" t="s">
         <v>55</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="C20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>54</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
         <v>56</v>
@@ -1625,107 +1703,116 @@
         <v>56</v>
       </c>
       <c r="L20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="N20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
         <v>446696</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>29531354</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>2018</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>2</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s">
         <v>56</v>
       </c>
       <c r="K21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" t="s">
         <v>55</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
         <v>69033</v>
       </c>
-      <c r="D22" s="11">
+      <c r="E22" s="11">
         <v>22885922</v>
       </c>
-      <c r="E22" s="11">
+      <c r="F22" s="11">
         <v>2012</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" t="s">
-        <v>56</v>
+      <c r="I22" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="J22" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" t="s">
         <v>59</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="N22" s="12" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N47">
-    <sortCondition ref="I2:I47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O47">
+    <sortCondition ref="J2:J47"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://gwas.mrcieu.ac.uk/datasets/ieu-b-2/" xr:uid="{2F5B03CB-A075-8E45-B6E8-DC91C97088B7}"/>
-    <hyperlink ref="F13" r:id="rId2" display="https://gwas.mrcieu.ac.uk/datasets/ieu-a-805/" xr:uid="{6400E97C-EA40-1D40-8A27-00FD606EA7C2}"/>
-    <hyperlink ref="F3" r:id="rId3" display="https://gwas.mrcieu.ac.uk/datasets/ebi-a-GCST005647/" xr:uid="{56EFC4FA-1EEC-4A4D-A78E-2E384B359E65}"/>
-    <hyperlink ref="F17" r:id="rId4" display="https://gwas.mrcieu.ac.uk/datasets/ieu-b-7/" xr:uid="{1EC54BBE-C491-D04A-A361-77F17EA5CBD8}"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://gwas.mrcieu.ac.uk/datasets/ebi-a-GCST003116/" xr:uid="{5A642771-C9F0-AA4F-A0A2-1C445F85D8A8}"/>
-    <hyperlink ref="F21" r:id="rId6" display="https://gwas.mrcieu.ac.uk/datasets/ebi-a-GCST005838/" xr:uid="{571A64C4-2C1D-EC44-B904-794E19EC25C9}"/>
-    <hyperlink ref="F19" r:id="rId7" display="https://gwas.mrcieu.ac.uk/datasets/ieu-b-42/" xr:uid="{12E952BB-764D-D748-A60D-2CC0DC10F3C6}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://gwas.mrcieu.ac.uk/datasets/ieu-b-2/" xr:uid="{2F5B03CB-A075-8E45-B6E8-DC91C97088B7}"/>
+    <hyperlink ref="G13" r:id="rId2" display="https://gwas.mrcieu.ac.uk/datasets/ieu-a-805/" xr:uid="{6400E97C-EA40-1D40-8A27-00FD606EA7C2}"/>
+    <hyperlink ref="G3" r:id="rId3" display="https://gwas.mrcieu.ac.uk/datasets/ebi-a-GCST005647/" xr:uid="{56EFC4FA-1EEC-4A4D-A78E-2E384B359E65}"/>
+    <hyperlink ref="G17" r:id="rId4" display="https://gwas.mrcieu.ac.uk/datasets/ieu-b-7/" xr:uid="{1EC54BBE-C491-D04A-A361-77F17EA5CBD8}"/>
+    <hyperlink ref="G6" r:id="rId5" display="https://gwas.mrcieu.ac.uk/datasets/ebi-a-GCST003116/" xr:uid="{5A642771-C9F0-AA4F-A0A2-1C445F85D8A8}"/>
+    <hyperlink ref="G21" r:id="rId6" display="https://gwas.mrcieu.ac.uk/datasets/ebi-a-GCST005838/" xr:uid="{571A64C4-2C1D-EC44-B904-794E19EC25C9}"/>
+    <hyperlink ref="G19" r:id="rId7" display="https://gwas.mrcieu.ac.uk/datasets/ieu-b-42/" xr:uid="{12E952BB-764D-D748-A60D-2CC0DC10F3C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
